--- a/src/test/resources/TestData/webservices_TestData.xlsx
+++ b/src/test/resources/TestData/webservices_TestData.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\surya automation\TestProject\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EIN0043\TestProject-master\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17430" windowHeight="3225" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="getApi" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
